--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>Agtr1a</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.385599809332668</v>
+        <v>0.174539</v>
       </c>
       <c r="H2">
-        <v>0.385599809332668</v>
+        <v>0.523617</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2427616627057682</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2427616627057681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.190798707248311</v>
+        <v>0.8192526666666667</v>
       </c>
       <c r="N2">
-        <v>9.190798707248311</v>
+        <v>2.457758</v>
       </c>
       <c r="O2">
-        <v>0.4739676805466714</v>
+        <v>0.03935738656594369</v>
       </c>
       <c r="P2">
-        <v>0.4739676805466714</v>
+        <v>0.03935738656594368</v>
       </c>
       <c r="Q2">
-        <v>3.54397022912988</v>
+        <v>0.1429915411873333</v>
       </c>
       <c r="R2">
-        <v>3.54397022912988</v>
+        <v>1.286923870686</v>
       </c>
       <c r="S2">
-        <v>0.4739676805466714</v>
+        <v>0.009554464602502153</v>
       </c>
       <c r="T2">
-        <v>0.4739676805466714</v>
+        <v>0.009554464602502149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -590,49 +593,297 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.385599809332668</v>
+        <v>0.174539</v>
       </c>
       <c r="H3">
-        <v>0.385599809332668</v>
+        <v>0.523617</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2427616627057682</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2427616627057681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2003941619526</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N3">
-        <v>10.2003941619526</v>
+        <v>27.664827</v>
       </c>
       <c r="O3">
-        <v>0.5260323194533285</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="P3">
-        <v>0.5260323194533285</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="Q3">
-        <v>3.933270043966982</v>
+        <v>1.609530413251</v>
       </c>
       <c r="R3">
-        <v>3.933270043966982</v>
+        <v>14.485773719259</v>
       </c>
       <c r="S3">
-        <v>0.5260323194533285</v>
+        <v>0.1075462312830823</v>
       </c>
       <c r="T3">
-        <v>0.5260323194533285</v>
+        <v>0.1075462312830823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.174539</v>
+      </c>
+      <c r="H4">
+        <v>0.523617</v>
+      </c>
+      <c r="I4">
+        <v>0.2427616627057682</v>
+      </c>
+      <c r="J4">
+        <v>0.2427616627057681</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10.77486666666667</v>
+      </c>
+      <c r="N4">
+        <v>32.3246</v>
+      </c>
+      <c r="O4">
+        <v>0.5176310189162251</v>
+      </c>
+      <c r="P4">
+        <v>0.517631018916225</v>
+      </c>
+      <c r="Q4">
+        <v>1.880634453133333</v>
+      </c>
+      <c r="R4">
+        <v>16.9257100782</v>
+      </c>
+      <c r="S4">
+        <v>0.1256609668201837</v>
+      </c>
+      <c r="T4">
+        <v>0.1256609668201837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5444336666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.633301</v>
+      </c>
+      <c r="I5">
+        <v>0.7572383372942318</v>
+      </c>
+      <c r="J5">
+        <v>0.7572383372942317</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.8192526666666667</v>
+      </c>
+      <c r="N5">
+        <v>2.457758</v>
+      </c>
+      <c r="O5">
+        <v>0.03935738656594369</v>
+      </c>
+      <c r="P5">
+        <v>0.03935738656594368</v>
+      </c>
+      <c r="Q5">
+        <v>0.4460287332397778</v>
+      </c>
+      <c r="R5">
+        <v>4.014258599158</v>
+      </c>
+      <c r="S5">
+        <v>0.02980292196344154</v>
+      </c>
+      <c r="T5">
+        <v>0.02980292196344153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5444336666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.633301</v>
+      </c>
+      <c r="I6">
+        <v>0.7572383372942318</v>
+      </c>
+      <c r="J6">
+        <v>0.7572383372942317</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>9.221608999999999</v>
+      </c>
+      <c r="N6">
+        <v>27.664827</v>
+      </c>
+      <c r="O6">
+        <v>0.4430115945178313</v>
+      </c>
+      <c r="P6">
+        <v>0.4430115945178313</v>
+      </c>
+      <c r="Q6">
+        <v>5.020554400436332</v>
+      </c>
+      <c r="R6">
+        <v>45.18498960392699</v>
+      </c>
+      <c r="S6">
+        <v>0.335465363234749</v>
+      </c>
+      <c r="T6">
+        <v>0.335465363234749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5444336666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.633301</v>
+      </c>
+      <c r="I7">
+        <v>0.7572383372942318</v>
+      </c>
+      <c r="J7">
+        <v>0.7572383372942317</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.77486666666667</v>
+      </c>
+      <c r="N7">
+        <v>32.3246</v>
+      </c>
+      <c r="O7">
+        <v>0.5176310189162251</v>
+      </c>
+      <c r="P7">
+        <v>0.517631018916225</v>
+      </c>
+      <c r="Q7">
+        <v>5.866200167177777</v>
+      </c>
+      <c r="R7">
+        <v>52.7958015046</v>
+      </c>
+      <c r="S7">
+        <v>0.3919700520960414</v>
+      </c>
+      <c r="T7">
+        <v>0.3919700520960412</v>
       </c>
     </row>
   </sheetData>
